--- a/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.503494091210889</v>
+        <v>-3.732015365612385</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.557141210948076</v>
+        <v>-3.632211722080435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.733323565834296</v>
+        <v>-2.73946280044776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.278565543560087</v>
+        <v>-3.386397074956874</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.488193876731883</v>
+        <v>-3.734656201548575</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.356648396423673</v>
+        <v>-5.300395750808546</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.45250650848188</v>
+        <v>-2.538945627677112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.651432439832797</v>
+        <v>-2.557453958603048</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.027707047348304</v>
+        <v>-3.133421152386216</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8504260505492106</v>
+        <v>0.6884842909027432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9763149430718839</v>
+        <v>0.8476477611423474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.565469981057341</v>
+        <v>1.654675686365643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.322594314085222</v>
+        <v>3.582454304124162</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.844085451779573</v>
+        <v>2.554389843216647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.163201800941171</v>
+        <v>0.1842671680921875</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.101483335545794</v>
+        <v>1.254373478164206</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.088418591767458</v>
+        <v>1.358439711638916</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5405499561258403</v>
+        <v>0.3478120065564991</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.05515148890204439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4981696927504587</v>
+        <v>-0.4981696927504586</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1659328957318707</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7974775287085945</v>
+        <v>-0.784134815219506</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7746435346381968</v>
+        <v>-0.7863794942046911</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6407354024107996</v>
+        <v>-0.6582459809126865</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5437933668033879</v>
+        <v>-0.551602103854126</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5683995773175715</v>
+        <v>-0.6104947496464387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7999112912096311</v>
+        <v>-0.7978714618125214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5599295777278942</v>
+        <v>-0.5490389061283952</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5688634779451404</v>
+        <v>-0.5617181166457893</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6355014161292115</v>
+        <v>-0.6383986169540495</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5546853287476066</v>
+        <v>0.4999026408258691</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6186116197466698</v>
+        <v>0.6008014523161901</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.879226988207882</v>
+        <v>0.9824952536214978</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.295148240455712</v>
+        <v>1.329260920355774</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.100259956394663</v>
+        <v>0.9299344926157477</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1101693125735963</v>
+        <v>0.1343063806935502</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4540658616691721</v>
+        <v>0.5177815489675253</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4271548995531314</v>
+        <v>0.5569118430046291</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2385115957662453</v>
+        <v>0.1543042891076868</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.348384247598248</v>
+        <v>-1.369931135885783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7896076381774687</v>
+        <v>-0.5853809889650655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.954491207451799</v>
+        <v>-2.14176316573403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.06986102979072</v>
+        <v>-2.020516343683788</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.038313847955819</v>
+        <v>-3.854454046194828</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.416511725178666</v>
+        <v>-5.287640937157591</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9842420008677837</v>
+        <v>-1.227729771391343</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.588363166913663</v>
+        <v>-1.631657086787385</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.114788071877885</v>
+        <v>-2.850100888560546</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.698005229467482</v>
+        <v>2.893271768718757</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.894999250390735</v>
+        <v>3.881744225396254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.821549482961099</v>
+        <v>1.954531287271644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.165291140428823</v>
+        <v>5.141539348756369</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.134005280291987</v>
+        <v>2.0901834284843</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.158055194651404</v>
+        <v>-0.03036731255482795</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.022803229458811</v>
+        <v>2.81206424461993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.609738621796294</v>
+        <v>2.045479156735771</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4151383174157753</v>
+        <v>0.2371932307968058</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.09850469712415898</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3984285211869214</v>
+        <v>-0.3984285211869213</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.574722552603471</v>
+        <v>-0.5156284897474918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3790933523956176</v>
+        <v>-0.3155269552263881</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7862846624834743</v>
+        <v>-0.7653868283173887</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3476797492571237</v>
+        <v>-0.3390114962974873</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6158584184854377</v>
+        <v>-0.6091375626725664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8124364305318224</v>
+        <v>-0.7870975992920339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2507648500708024</v>
+        <v>-0.2783060414091963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3821911162510702</v>
+        <v>-0.3985494877154989</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6994469040376461</v>
+        <v>-0.6765783362775554</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.134575941479945</v>
+        <v>3.34044620219109</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.78058452555775</v>
+        <v>4.084632585825178</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.053153579644242</v>
+        <v>2.089418843398144</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.596536163947816</v>
+        <v>1.60415095964884</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7531370575391499</v>
+        <v>0.6867064203427394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02275373334587874</v>
+        <v>0.06467561594848451</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.313809379652323</v>
+        <v>1.155091977088774</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.162808243776117</v>
+        <v>0.8975080029127017</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2340788149476231</v>
+        <v>0.1390179994585612</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.4157208553402</v>
+        <v>-2.365988834225637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.736300202000614</v>
+        <v>-2.79673395330241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.040387411543492</v>
+        <v>-5.133430292997263</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.592758914724719</v>
+        <v>-5.628579582764049</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.458434071328591</v>
+        <v>-8.83846068682722</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.511513773021532</v>
+        <v>-8.513880136041287</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.325876853261228</v>
+        <v>-2.331814871309727</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.569324715365842</v>
+        <v>-3.826110313563658</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.14982847300921</v>
+        <v>-5.139490242642643</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.794665371923728</v>
+        <v>2.866799714222648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.671375176393094</v>
+        <v>2.444469421235061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3634716178180402</v>
+        <v>-0.5499506784591395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.885753380658902</v>
+        <v>3.838274322087381</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6917702104572725</v>
+        <v>0.6620640199012996</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7421643784700488</v>
+        <v>0.62994002873504</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.183517751446177</v>
+        <v>2.16732374782868</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.292702458338865</v>
+        <v>1.113567934844979</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.7482266274565577</v>
+        <v>-0.9909191905877683</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3822783314219662</v>
+        <v>-0.3789999446661698</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4458557066581296</v>
+        <v>-0.4603346638699294</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7921421912792248</v>
+        <v>-0.7874178815562896</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6530327366905671</v>
+        <v>-0.6012799901629978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9065044692068625</v>
+        <v>-0.9150968357852449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8753111425345314</v>
+        <v>-0.8939556797003452</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3534291612442771</v>
+        <v>-0.348141455500171</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5508572613221773</v>
+        <v>-0.5592165821737324</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7645288450645822</v>
+        <v>-0.7750089687254815</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7801685363869185</v>
+        <v>0.7821737638349741</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7337658446453071</v>
+        <v>0.6321429980130889</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.03815314099708957</v>
+        <v>-0.07021950780114275</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.164641492111958</v>
+        <v>1.272233553433404</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5417886482695391</v>
+        <v>0.4687844603464489</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7542844671222618</v>
+        <v>0.5753034753630936</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5658035493076459</v>
+        <v>0.53772133861981</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3127257318581541</v>
+        <v>0.3160659067197973</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1211925859562961</v>
+        <v>-0.182632706881752</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3939971362702497</v>
+        <v>-0.2563808625870837</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.140129601279078</v>
+        <v>-2.112041487499469</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.990537439200185</v>
+        <v>-2.913301129269433</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5336370547688043</v>
+        <v>-0.6971104684887984</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.606061331266552</v>
+        <v>-2.520300056189386</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.313383618790497</v>
+        <v>-5.083184921146451</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1229219398290621</v>
+        <v>0.2160604022806747</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.700998225114066</v>
+        <v>-1.685460227228709</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.235861987815093</v>
+        <v>-3.261842342587609</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.343690215633737</v>
+        <v>3.701478233136613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.229374319176621</v>
+        <v>1.248031879095097</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2414477354115826</v>
+        <v>0.35257498430267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.9287092318684</v>
+        <v>4.736709615428595</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.924638681468196</v>
+        <v>2.134384951263208</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.182462906408506</v>
+        <v>-0.8121548287292456</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.40751773397313</v>
+        <v>3.446328621346359</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.172080852496625</v>
+        <v>1.09549300058319</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.7839640586699006</v>
+        <v>-0.7880509547659031</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1088917953186142</v>
+        <v>-0.05157002845684854</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4069514876812966</v>
+        <v>-0.4008915953430495</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5787321146594271</v>
+        <v>-0.5788748627478562</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08010538066830472</v>
+        <v>-0.1037936813194914</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3854685302243321</v>
+        <v>-0.3765768071905023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7275440051488575</v>
+        <v>-0.7281451462315847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02054204925670905</v>
+        <v>0.03423598212880238</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3006935413885828</v>
+        <v>-0.3169374858669231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5819777596489475</v>
+        <v>-0.5966491388994153</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9042957617127506</v>
+        <v>0.9995343617674691</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3417411271777841</v>
+        <v>0.3473787429361474</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07963267919881334</v>
+        <v>0.0976457815752807</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.186448711990676</v>
+        <v>1.086501405915306</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4265982792092443</v>
+        <v>0.4941247229350282</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.225872472611152</v>
+        <v>-0.2084660873654383</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8065235915005944</v>
+        <v>0.8361841971625634</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2915099194112618</v>
+        <v>0.2698436107963589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.186057669342288</v>
+        <v>-0.1891876929147233</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-2.380193069473032</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.977399557595393</v>
+        <v>-4.977399557595392</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-2.362875317148747</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.832649466749794</v>
+        <v>-8.201365338239027</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.671220300299449</v>
+        <v>-8.996268544742541</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.03314298117546</v>
+        <v>-11.14180224380765</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.807376605220522</v>
+        <v>-4.993872537206169</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.364656935692031</v>
+        <v>-5.392467420404827</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.008390783580904</v>
+        <v>-7.577481462623616</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.879726133128672</v>
+        <v>-4.94550527226421</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.849379263288408</v>
+        <v>-5.660024535203279</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.866682158312028</v>
+        <v>-7.953417468396276</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06925225902251422</v>
+        <v>0.4570262280169095</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5622748761244132</v>
+        <v>-0.5113155972095289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.411208208252856</v>
+        <v>-3.046608673850649</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.40253402274343</v>
+        <v>1.279752744699583</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7196582987794935</v>
+        <v>0.6282592610178309</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.398179589448941</v>
+        <v>-2.432217417877732</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03392115605136405</v>
+        <v>0.1512300633705619</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.9384911778893507</v>
+        <v>-0.8651621896970996</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.593034487872582</v>
+        <v>-3.465150905351789</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2637094828373648</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.5514626019388473</v>
+        <v>-0.5514626019388471</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2510585842433818</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5940813140248745</v>
+        <v>-0.5839969802379439</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6588396719653419</v>
+        <v>-0.6856987311094352</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8317149291369818</v>
+        <v>-0.8276957123213726</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.436182928390547</v>
+        <v>-0.4557021897293269</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5012909825448445</v>
+        <v>-0.4913332816496954</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6958957258212529</v>
+        <v>-0.6975212160521828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4430070536725531</v>
+        <v>-0.4524865341938608</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5384593739948262</v>
+        <v>-0.5155049285851503</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7124051587873023</v>
+        <v>-0.7148315775100033</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02559133995464747</v>
+        <v>0.1155550584903207</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.05620140606053169</v>
+        <v>-0.07010943400182094</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4224887347390525</v>
+        <v>-0.4026079150859198</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2235162125679565</v>
+        <v>0.1828175304096271</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1054690226345049</v>
+        <v>0.0927685676265073</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3230511086247499</v>
+        <v>-0.3239716243647661</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.007742497464412699</v>
+        <v>0.01879807119622914</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1201201947805785</v>
+        <v>-0.1097572223168203</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4528472359326017</v>
+        <v>-0.4413031866176663</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.203603519214884</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.460923850031276</v>
+        <v>-1.460923850031277</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.0669023801708</v>
@@ -1734,7 +1734,7 @@
         <v>-1.676876454927087</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.31579754870466</v>
+        <v>-2.315797548704659</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.203534075182078</v>
+        <v>-7.412637823604533</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.845896306807174</v>
+        <v>-3.683087833566046</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.956975941528352</v>
+        <v>-8.994866353143186</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.441984913990517</v>
+        <v>-2.458927925181337</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.88368790527591</v>
+        <v>-3.959181319917943</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.550418729722883</v>
+        <v>-3.360203912621465</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.699982499209739</v>
+        <v>-2.764129847080209</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.266759273182433</v>
+        <v>-3.262617580416594</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.978069674777444</v>
+        <v>-4.006566142718754</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1061299234356538</v>
+        <v>0.08721064074601259</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.454234980481695</v>
+        <v>4.837607301743593</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.266398374843041</v>
+        <v>-1.979512148450364</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.334268616804624</v>
+        <v>1.361301744921745</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.4999546422235526</v>
+        <v>-0.3985838506463665</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.8606011994359819</v>
+        <v>0.8585711334005122</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.7033207223509541</v>
+        <v>0.4818359151730678</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.05721623744210145</v>
+        <v>0.09874903905864668</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.3557762861751545</v>
+        <v>-0.2701511069675137</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3960037720596619</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2625387690025257</v>
+        <v>-0.2625387690025258</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.183841108167946</v>
@@ -1839,7 +1839,7 @@
         <v>-0.2889475470897162</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3990419325696147</v>
+        <v>-0.3990419325696146</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7863974340281026</v>
+        <v>-0.8054467620649044</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4352904365900664</v>
+        <v>-0.4487189112740264</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3833629394683217</v>
+        <v>-0.3722889486714296</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.591635074822578</v>
+        <v>-0.6066194412051417</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5586028267088297</v>
+        <v>-0.5277184904533637</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4024517550699344</v>
+        <v>-0.4095450674330607</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4867368609291684</v>
+        <v>-0.4899882223665041</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.613930261100351</v>
+        <v>-0.6013870902873059</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1089421814427785</v>
+        <v>0.06176176060696769</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9428136830920788</v>
+        <v>0.9759178013991413</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2633357628632518</v>
+        <v>-0.1161824144393368</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2736960544844418</v>
+        <v>0.3121554832829748</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.09523311621887086</v>
+        <v>-0.07660729440603126</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2005736858197919</v>
+        <v>0.2014855075754442</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1562041986770245</v>
+        <v>0.09212682925144568</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.02498907795362477</v>
+        <v>0.01974953721751197</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.06396827159191677</v>
+        <v>-0.03916559453998197</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-1.404437425103731</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-2.80428545983592</v>
+        <v>-2.804285459835921</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.09520562986050085</v>
@@ -1948,7 +1948,7 @@
         <v>-0.9663180275457608</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-2.53193554798923</v>
+        <v>-2.531935547989231</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.093780071111848</v>
+        <v>-1.039516036516502</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.554442039908477</v>
+        <v>-1.497727020044862</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.167754644185948</v>
+        <v>-3.214162140325493</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.9143073965102191</v>
+        <v>-0.9316780893059756</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.521526015062602</v>
+        <v>-2.469346639484502</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.882429676433975</v>
+        <v>-3.847036787448682</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6974009997600782</v>
+        <v>-0.7487432942403965</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.712410297253167</v>
+        <v>-1.783692168305856</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.241358851207409</v>
+        <v>-3.242343786958983</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.129811517818031</v>
+        <v>0.9619569244797143</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.4845522811655138</v>
+        <v>0.5395482124299226</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.372075747108249</v>
+        <v>-1.267793731169644</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.399692016728776</v>
+        <v>1.537867372906826</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.2989086093446774</v>
+        <v>-0.2498707896735093</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.798307695170719</v>
+        <v>-1.80295581002118</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8741024126297375</v>
+        <v>0.8664132585362357</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.1614124041868895</v>
+        <v>-0.1734220099707494</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.891773835681556</v>
+        <v>-1.863611320066571</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1066644871313712</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4675603575894807</v>
+        <v>-0.4675603575894808</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.04131015331154891</v>
@@ -2044,7 +2044,7 @@
         <v>-0.2353453022347229</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.4699215481592413</v>
+        <v>-0.4699215481592414</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.01761091833665783</v>
@@ -2053,7 +2053,7 @@
         <v>-0.1787472851687842</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.4683516115029538</v>
+        <v>-0.468351611502954</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.202170787674352</v>
+        <v>-0.1949146917470992</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2858046445902665</v>
+        <v>-0.2811562384390738</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5908080787772041</v>
+        <v>-0.5935958936577748</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1381353215977739</v>
+        <v>-0.1413329791890673</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3770534391511339</v>
+        <v>-0.3730625496707038</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5819325711835448</v>
+        <v>-0.5789018486596604</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1214259494208791</v>
+        <v>-0.1276750135787308</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.295844769030476</v>
+        <v>-0.3022447566478103</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5534733709403267</v>
+        <v>-0.5516217626514857</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2749912074847769</v>
+        <v>0.2261918325154881</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1162011091621868</v>
+        <v>0.1275178197798133</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3130661163690655</v>
+        <v>-0.2819427103001353</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.265104213550139</v>
+        <v>0.2823963552631296</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.05032974419783362</v>
+        <v>-0.04507851533831304</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3175755589064257</v>
+        <v>-0.3414387329134938</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.179309868133257</v>
+        <v>0.1702215216687058</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.02780338154108604</v>
+        <v>-0.03411398337551187</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.368392871723327</v>
+        <v>-0.3595102585721828</v>
       </c>
     </row>
     <row r="46">
